--- a/Assets/08.Tables/Excel/Item.xlsx
+++ b/Assets/08.Tables/Excel/Item.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t xml:space="preserve">item_weapon_onehand_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_SHIELD_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_SHIELD_DESC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_shield_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -395,7 +407,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,8 +512,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>10102001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -542,31 +574,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/08.Tables/Excel/Item.xlsx
+++ b/Assets/08.Tables/Excel/Item.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">ref_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
@@ -78,6 +81,15 @@
   </si>
   <si>
     <t xml:space="preserve">item_weapon_onehand_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_WEAPON_TWOHAND_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_WEAPON_TWOHAND_DESC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_weapon_twohand_001</t>
   </si>
   <si>
     <t xml:space="preserve">ITEM_SHIELD_001</t>
@@ -404,10 +416,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,6 +430,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,28 +455,34 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,22 +490,25 @@
         <v>10101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>20101001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,55 +516,87 @@
         <v>10101002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="n">
+        <v>20101002</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>10101003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>20103001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>10102001</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30101001</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -574,31 +628,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/08.Tables/Excel/Item.xlsx
+++ b/Assets/08.Tables/Excel/Item.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20103001</v>
+        <v>20102001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/08.Tables/Excel/Item.xlsx
+++ b/Assets/08.Tables/Excel/Item.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -102,6 +102,75 @@
   </si>
   <si>
     <t xml:space="preserve">Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_BOW_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_bow_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_ARROW_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_arrow_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_ARMOR_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_armor_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_FOOD_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_food_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_FOOD_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_food_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_FOOD_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_food_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_FOOD_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_food_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_FOOD_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_food_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_DEFAULT_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_default_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -416,10 +485,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,13 +659,238 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>10103001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>10103101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>10104001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10105001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>60101001</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10105002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>60101002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10105003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>60101003</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10105004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>60101004</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10105005</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>60101005</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10106001</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -628,31 +922,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
